--- a/notebooks/TAF4/input/TAF4_individuals.xlsx
+++ b/notebooks/TAF4/input/TAF4_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TAF4/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TAF4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BDA9BC-948A-0243-878F-EED34EEF88E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F3B73-5F56-F84B-8E3B-7E36FE4A5C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1220" windowWidth="51000" windowHeight="23620" xr2:uid="{CFA76209-4BBB-8248-8090-9640EB4B328A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{CFA76209-4BBB-8248-8090-9640EB4B328A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>PMID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>HP:0001249</t>
   </si>
   <si>
-    <t>HP:0003623</t>
-  </si>
-  <si>
     <t>HP:0001622</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>Infantile onset</t>
-  </si>
-  <si>
-    <t>HP:0003593</t>
   </si>
   <si>
     <t>Hypotonia</t>
@@ -306,8 +300,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -469,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,15 +613,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60975F7-0266-C84C-9B6B-6BD3713014C0}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="U1" sqref="U1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -647,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -668,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -686,39 +680,33 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
       <c r="Z1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -727,16 +715,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -751,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -781,31 +769,25 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>39</v>
-      </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -822,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -837,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -846,37 +828,31 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -884,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -893,67 +869,61 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" t="s">
+        <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E9" s="1"/>
     </row>
   </sheetData>
